--- a/output/16_learn_rate_0.0001/full.xlsx
+++ b/output/16_learn_rate_0.0001/full.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -497,34 +497,162 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9941999912261963</v>
+        <v>0.9902999997138977</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9884999990463257</v>
+        <v>0.9814000129699707</v>
       </c>
       <c r="M2" t="n">
-        <v>465.913</v>
+        <v>432.465</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0021</v>
+        <v>0.0023</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0021</v>
+        <v>0.0023</v>
       </c>
       <c r="P2" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.9539</v>
+        <v>8.008599999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9941999912261963</v>
+        <v>0.9901999831199646</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9943000078201294</v>
+        <v>0.991100013256073</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9943000078201294</v>
+        <v>0.991100013256073</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9965000152587891</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9916999936103821</v>
+      </c>
+      <c r="M3" t="n">
+        <v>541.039</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="P3" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.1976</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9957000017166138</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.995199978351593</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.995199978351593</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9980000257492065</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9959999918937683</v>
+      </c>
+      <c r="M4" t="n">
+        <v>631.567</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="P4" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.8946</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9977999925613403</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9980000257492065</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9980000257492065</v>
       </c>
     </row>
   </sheetData>
